--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Hspg2-Ptprs.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Hspg2-Ptprs.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>109.868896830711</v>
+        <v>139.028825</v>
       </c>
       <c r="H2">
-        <v>109.868896830711</v>
+        <v>417.086475</v>
       </c>
       <c r="I2">
-        <v>0.3938771950501868</v>
+        <v>0.428090758569687</v>
       </c>
       <c r="J2">
-        <v>0.3938771950501868</v>
+        <v>0.428090758569687</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.45815071794157</v>
+        <v>1.908591666666666</v>
       </c>
       <c r="N2">
-        <v>1.45815071794157</v>
+        <v>5.725775</v>
       </c>
       <c r="O2">
-        <v>0.02433643133930232</v>
+        <v>0.02908012806830959</v>
       </c>
       <c r="P2">
-        <v>0.02433643133930232</v>
+        <v>0.0290801280683096</v>
       </c>
       <c r="Q2">
-        <v>160.2054107931495</v>
+        <v>265.3492568214583</v>
       </c>
       <c r="R2">
-        <v>160.2054107931495</v>
+        <v>2388.143311393125</v>
       </c>
       <c r="S2">
-        <v>0.009585565313455859</v>
+        <v>0.0124489340840663</v>
       </c>
       <c r="T2">
-        <v>0.009585565313455859</v>
+        <v>0.0124489340840663</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>109.868896830711</v>
+        <v>139.028825</v>
       </c>
       <c r="H3">
-        <v>109.868896830711</v>
+        <v>417.086475</v>
       </c>
       <c r="I3">
-        <v>0.3938771950501868</v>
+        <v>0.428090758569687</v>
       </c>
       <c r="J3">
-        <v>0.3938771950501868</v>
+        <v>0.428090758569687</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>20.5090632873676</v>
+        <v>20.524797</v>
       </c>
       <c r="N3">
-        <v>20.5090632873676</v>
+        <v>61.574391</v>
       </c>
       <c r="O3">
-        <v>0.3422948014804789</v>
+        <v>0.3127246837341967</v>
       </c>
       <c r="P3">
-        <v>0.3422948014804789</v>
+        <v>0.3127246837341967</v>
       </c>
       <c r="Q3">
-        <v>2253.308158414313</v>
+        <v>2853.538410273525</v>
       </c>
       <c r="R3">
-        <v>2253.308158414313</v>
+        <v>25681.84569246172</v>
       </c>
       <c r="S3">
-        <v>0.1348221162873916</v>
+        <v>0.1338745470832377</v>
       </c>
       <c r="T3">
-        <v>0.1348221162873916</v>
+        <v>0.1338745470832377</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>109.868896830711</v>
+        <v>139.028825</v>
       </c>
       <c r="H4">
-        <v>109.868896830711</v>
+        <v>417.086475</v>
       </c>
       <c r="I4">
-        <v>0.3938771950501868</v>
+        <v>0.428090758569687</v>
       </c>
       <c r="J4">
-        <v>0.3938771950501868</v>
+        <v>0.428090758569687</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.0354958259057</v>
+        <v>8.719214000000001</v>
       </c>
       <c r="N4">
-        <v>8.0354958259057</v>
+        <v>26.157642</v>
       </c>
       <c r="O4">
-        <v>0.1341118514281324</v>
+        <v>0.132849715422802</v>
       </c>
       <c r="P4">
-        <v>0.1341118514281324</v>
+        <v>0.132849715422802</v>
       </c>
       <c r="Q4">
-        <v>882.8510618800423</v>
+        <v>1212.22207734355</v>
       </c>
       <c r="R4">
-        <v>882.8510618800423</v>
+        <v>10909.99869609195</v>
       </c>
       <c r="S4">
-        <v>0.05282359986350019</v>
+        <v>0.05687173545111435</v>
       </c>
       <c r="T4">
-        <v>0.05282359986350019</v>
+        <v>0.05687173545111437</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>109.868896830711</v>
+        <v>139.028825</v>
       </c>
       <c r="H5">
-        <v>109.868896830711</v>
+        <v>417.086475</v>
       </c>
       <c r="I5">
-        <v>0.3938771950501868</v>
+        <v>0.428090758569687</v>
       </c>
       <c r="J5">
-        <v>0.3938771950501868</v>
+        <v>0.428090758569687</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>11.4321873696126</v>
+        <v>11.88286</v>
       </c>
       <c r="N5">
-        <v>11.4321873696126</v>
+        <v>35.64858</v>
       </c>
       <c r="O5">
-        <v>0.1908023906961892</v>
+        <v>0.1810523941044453</v>
       </c>
       <c r="P5">
-        <v>0.1908023906961892</v>
+        <v>0.1810523941044453</v>
       </c>
       <c r="Q5">
-        <v>1256.041814661324</v>
+        <v>1652.0600634395</v>
       </c>
       <c r="R5">
-        <v>1256.041814661324</v>
+        <v>14868.5405709555</v>
       </c>
       <c r="S5">
-        <v>0.07515271045628488</v>
+        <v>0.0775068567330299</v>
       </c>
       <c r="T5">
-        <v>0.07515271045628488</v>
+        <v>0.07750685673302993</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>109.868896830711</v>
+        <v>139.028825</v>
       </c>
       <c r="H6">
-        <v>109.868896830711</v>
+        <v>417.086475</v>
       </c>
       <c r="I6">
-        <v>0.3938771950501868</v>
+        <v>0.428090758569687</v>
       </c>
       <c r="J6">
-        <v>0.3938771950501868</v>
+        <v>0.428090758569687</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.63214732573411</v>
+        <v>1.641831</v>
       </c>
       <c r="N6">
-        <v>1.63214732573411</v>
+        <v>4.925493</v>
       </c>
       <c r="O6">
-        <v>0.02724042229628126</v>
+        <v>0.02501564718130951</v>
       </c>
       <c r="P6">
-        <v>0.02724042229628126</v>
+        <v>0.02501564718130951</v>
       </c>
       <c r="Q6">
-        <v>179.3222261436018</v>
+        <v>228.261834778575</v>
       </c>
       <c r="R6">
-        <v>179.3222261436018</v>
+        <v>2054.356513007175</v>
       </c>
       <c r="S6">
-        <v>0.01072938112604183</v>
+        <v>0.01070896737795844</v>
       </c>
       <c r="T6">
-        <v>0.01072938112604183</v>
+        <v>0.01070896737795844</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>109.868896830711</v>
+        <v>139.028825</v>
       </c>
       <c r="H7">
-        <v>109.868896830711</v>
+        <v>417.086475</v>
       </c>
       <c r="I7">
-        <v>0.3938771950501868</v>
+        <v>0.428090758569687</v>
       </c>
       <c r="J7">
-        <v>0.3938771950501868</v>
+        <v>0.428090758569687</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>16.84932930869</v>
+        <v>20.954868</v>
       </c>
       <c r="N7">
-        <v>16.84932930869</v>
+        <v>62.864604</v>
       </c>
       <c r="O7">
-        <v>0.2812141027596159</v>
+        <v>0.3192774314889369</v>
       </c>
       <c r="P7">
-        <v>0.2812141027596159</v>
+        <v>0.3192774314889369</v>
       </c>
       <c r="Q7">
-        <v>1851.217223483136</v>
+        <v>2913.3306760701</v>
       </c>
       <c r="R7">
-        <v>1851.217223483136</v>
+        <v>26219.9760846309</v>
       </c>
       <c r="S7">
-        <v>0.1107638220035125</v>
+        <v>0.1366797178402803</v>
       </c>
       <c r="T7">
-        <v>0.1107638220035125</v>
+        <v>0.1366797178402803</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>104.417461478361</v>
+        <v>105.0686953333333</v>
       </c>
       <c r="H8">
-        <v>104.417461478361</v>
+        <v>315.206086</v>
       </c>
       <c r="I8">
-        <v>0.3743339382457656</v>
+        <v>0.3235223881606854</v>
       </c>
       <c r="J8">
-        <v>0.3743339382457656</v>
+        <v>0.3235223881606855</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.45815071794157</v>
+        <v>1.908591666666666</v>
       </c>
       <c r="N8">
-        <v>1.45815071794157</v>
+        <v>5.725775</v>
       </c>
       <c r="O8">
-        <v>0.02433643133930232</v>
+        <v>0.02908012806830959</v>
       </c>
       <c r="P8">
-        <v>0.02433643133930232</v>
+        <v>0.0290801280683096</v>
       </c>
       <c r="Q8">
-        <v>152.2563964203083</v>
+        <v>200.5332363407389</v>
       </c>
       <c r="R8">
-        <v>152.2563964203083</v>
+        <v>1804.79912706665</v>
       </c>
       <c r="S8">
-        <v>0.00910995218608871</v>
+        <v>0.009408072480678098</v>
       </c>
       <c r="T8">
-        <v>0.00910995218608871</v>
+        <v>0.009408072480678103</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>104.417461478361</v>
+        <v>105.0686953333333</v>
       </c>
       <c r="H9">
-        <v>104.417461478361</v>
+        <v>315.206086</v>
       </c>
       <c r="I9">
-        <v>0.3743339382457656</v>
+        <v>0.3235223881606854</v>
       </c>
       <c r="J9">
-        <v>0.3743339382457656</v>
+        <v>0.3235223881606855</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>20.5090632873676</v>
+        <v>20.524797</v>
       </c>
       <c r="N9">
-        <v>20.5090632873676</v>
+        <v>61.574391</v>
       </c>
       <c r="O9">
-        <v>0.3422948014804789</v>
+        <v>0.3127246837341967</v>
       </c>
       <c r="P9">
-        <v>0.3422948014804789</v>
+        <v>0.3127246837341967</v>
       </c>
       <c r="Q9">
-        <v>2141.504325765974</v>
+        <v>2156.513642771514</v>
       </c>
       <c r="R9">
-        <v>2141.504325765974</v>
+        <v>19408.62278494363</v>
       </c>
       <c r="S9">
-        <v>0.1281325610792402</v>
+        <v>0.1011734365184823</v>
       </c>
       <c r="T9">
-        <v>0.1281325610792402</v>
+        <v>0.1011734365184824</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>104.417461478361</v>
+        <v>105.0686953333333</v>
       </c>
       <c r="H10">
-        <v>104.417461478361</v>
+        <v>315.206086</v>
       </c>
       <c r="I10">
-        <v>0.3743339382457656</v>
+        <v>0.3235223881606854</v>
       </c>
       <c r="J10">
-        <v>0.3743339382457656</v>
+        <v>0.3235223881606855</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>8.0354958259057</v>
+        <v>8.719214000000001</v>
       </c>
       <c r="N10">
-        <v>8.0354958259057</v>
+        <v>26.157642</v>
       </c>
       <c r="O10">
-        <v>0.1341118514281324</v>
+        <v>0.132849715422802</v>
       </c>
       <c r="P10">
-        <v>0.1341118514281324</v>
+        <v>0.132849715422802</v>
       </c>
       <c r="Q10">
-        <v>839.0460758610391</v>
+        <v>916.1164393121348</v>
       </c>
       <c r="R10">
-        <v>839.0460758610391</v>
+        <v>8245.047953809213</v>
       </c>
       <c r="S10">
-        <v>0.05020261751052382</v>
+        <v>0.04297985720005234</v>
       </c>
       <c r="T10">
-        <v>0.05020261751052382</v>
+        <v>0.04297985720005236</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>104.417461478361</v>
+        <v>105.0686953333333</v>
       </c>
       <c r="H11">
-        <v>104.417461478361</v>
+        <v>315.206086</v>
       </c>
       <c r="I11">
-        <v>0.3743339382457656</v>
+        <v>0.3235223881606854</v>
       </c>
       <c r="J11">
-        <v>0.3743339382457656</v>
+        <v>0.3235223881606855</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>11.4321873696126</v>
+        <v>11.88286</v>
       </c>
       <c r="N11">
-        <v>11.4321873696126</v>
+        <v>35.64858</v>
       </c>
       <c r="O11">
-        <v>0.1908023906961892</v>
+        <v>0.1810523941044453</v>
       </c>
       <c r="P11">
-        <v>0.1908023906961892</v>
+        <v>0.1810523941044453</v>
       </c>
       <c r="Q11">
-        <v>1193.719984279929</v>
+        <v>1248.516597028653</v>
       </c>
       <c r="R11">
-        <v>1193.719984279929</v>
+        <v>11236.64937325788</v>
       </c>
       <c r="S11">
-        <v>0.07142381033601174</v>
+        <v>0.05857450292287973</v>
       </c>
       <c r="T11">
-        <v>0.07142381033601174</v>
+        <v>0.05857450292287976</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>104.417461478361</v>
+        <v>105.0686953333333</v>
       </c>
       <c r="H12">
-        <v>104.417461478361</v>
+        <v>315.206086</v>
       </c>
       <c r="I12">
-        <v>0.3743339382457656</v>
+        <v>0.3235223881606854</v>
       </c>
       <c r="J12">
-        <v>0.3743339382457656</v>
+        <v>0.3235223881606855</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.63214732573411</v>
+        <v>1.641831</v>
       </c>
       <c r="N12">
-        <v>1.63214732573411</v>
+        <v>4.925493</v>
       </c>
       <c r="O12">
-        <v>0.02724042229628126</v>
+        <v>0.02501564718130951</v>
       </c>
       <c r="P12">
-        <v>0.02724042229628126</v>
+        <v>0.02501564718130951</v>
       </c>
       <c r="Q12">
-        <v>170.4246805118514</v>
+        <v>172.505041127822</v>
       </c>
       <c r="R12">
-        <v>170.4246805118514</v>
+        <v>1552.545370150398</v>
       </c>
       <c r="S12">
-        <v>0.01019701455764472</v>
+        <v>0.00809312191748237</v>
       </c>
       <c r="T12">
-        <v>0.01019701455764472</v>
+        <v>0.008093121917482373</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>104.417461478361</v>
+        <v>105.0686953333333</v>
       </c>
       <c r="H13">
-        <v>104.417461478361</v>
+        <v>315.206086</v>
       </c>
       <c r="I13">
-        <v>0.3743339382457656</v>
+        <v>0.3235223881606854</v>
       </c>
       <c r="J13">
-        <v>0.3743339382457656</v>
+        <v>0.3235223881606855</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>16.84932930869</v>
+        <v>20.954868</v>
       </c>
       <c r="N13">
-        <v>16.84932930869</v>
+        <v>62.864604</v>
       </c>
       <c r="O13">
-        <v>0.2812141027596159</v>
+        <v>0.3192774314889369</v>
       </c>
       <c r="P13">
-        <v>0.2812141027596159</v>
+        <v>0.3192774314889369</v>
       </c>
       <c r="Q13">
-        <v>1759.364194026357</v>
+        <v>2201.700641642216</v>
       </c>
       <c r="R13">
-        <v>1759.364194026357</v>
+        <v>19815.30577477995</v>
       </c>
       <c r="S13">
-        <v>0.1052679825762564</v>
+        <v>0.1032933971211105</v>
       </c>
       <c r="T13">
-        <v>0.1052679825762564</v>
+        <v>0.1032933971211105</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.170588326155078</v>
+        <v>0.2092613333333333</v>
       </c>
       <c r="H14">
-        <v>0.170588326155078</v>
+        <v>0.6277839999999999</v>
       </c>
       <c r="I14">
-        <v>0.0006115548016996843</v>
+        <v>0.0006443472634251982</v>
       </c>
       <c r="J14">
-        <v>0.0006115548016996843</v>
+        <v>0.0006443472634251983</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.45815071794157</v>
+        <v>1.908591666666666</v>
       </c>
       <c r="N14">
-        <v>1.45815071794157</v>
+        <v>5.725775</v>
       </c>
       <c r="O14">
-        <v>0.02433643133930232</v>
+        <v>0.02908012806830959</v>
       </c>
       <c r="P14">
-        <v>0.02433643133930232</v>
+        <v>0.0290801280683096</v>
       </c>
       <c r="Q14">
-        <v>0.2487434902554777</v>
+        <v>0.3993944369555554</v>
       </c>
       <c r="R14">
-        <v>0.2487434902554777</v>
+        <v>3.594549932599999</v>
       </c>
       <c r="S14">
-        <v>1.488306144178501E-05</v>
+        <v>1.873770094086958E-05</v>
       </c>
       <c r="T14">
-        <v>1.488306144178501E-05</v>
+        <v>1.873770094086959E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.170588326155078</v>
+        <v>0.2092613333333333</v>
       </c>
       <c r="H15">
-        <v>0.170588326155078</v>
+        <v>0.6277839999999999</v>
       </c>
       <c r="I15">
-        <v>0.0006115548016996843</v>
+        <v>0.0006443472634251982</v>
       </c>
       <c r="J15">
-        <v>0.0006115548016996843</v>
+        <v>0.0006443472634251983</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>20.5090632873676</v>
+        <v>20.524797</v>
       </c>
       <c r="N15">
-        <v>20.5090632873676</v>
+        <v>61.574391</v>
       </c>
       <c r="O15">
-        <v>0.3422948014804789</v>
+        <v>0.3127246837341967</v>
       </c>
       <c r="P15">
-        <v>0.3422948014804789</v>
+        <v>0.3127246837341967</v>
       </c>
       <c r="Q15">
-        <v>3.4986067772006</v>
+        <v>4.295046386615999</v>
       </c>
       <c r="R15">
-        <v>3.4986067772006</v>
+        <v>38.65541747954399</v>
       </c>
       <c r="S15">
-        <v>0.0002093320294422271</v>
+        <v>0.0002015032941696402</v>
       </c>
       <c r="T15">
-        <v>0.0002093320294422271</v>
+        <v>0.0002015032941696403</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.170588326155078</v>
+        <v>0.2092613333333333</v>
       </c>
       <c r="H16">
-        <v>0.170588326155078</v>
+        <v>0.6277839999999999</v>
       </c>
       <c r="I16">
-        <v>0.0006115548016996843</v>
+        <v>0.0006443472634251982</v>
       </c>
       <c r="J16">
-        <v>0.0006115548016996843</v>
+        <v>0.0006443472634251983</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>8.0354958259057</v>
+        <v>8.719214000000001</v>
       </c>
       <c r="N16">
-        <v>8.0354958259057</v>
+        <v>26.157642</v>
       </c>
       <c r="O16">
-        <v>0.1341118514281324</v>
+        <v>0.132849715422802</v>
       </c>
       <c r="P16">
-        <v>0.1341118514281324</v>
+        <v>0.132849715422802</v>
       </c>
       <c r="Q16">
-        <v>1.370761782767369</v>
+        <v>1.824594347258667</v>
       </c>
       <c r="R16">
-        <v>1.370761782767369</v>
+        <v>16.421349125328</v>
       </c>
       <c r="S16">
-        <v>8.201674670570905E-05</v>
+        <v>8.560135057949882E-05</v>
       </c>
       <c r="T16">
-        <v>8.201674670570905E-05</v>
+        <v>8.560135057949884E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.170588326155078</v>
+        <v>0.2092613333333333</v>
       </c>
       <c r="H17">
-        <v>0.170588326155078</v>
+        <v>0.6277839999999999</v>
       </c>
       <c r="I17">
-        <v>0.0006115548016996843</v>
+        <v>0.0006443472634251982</v>
       </c>
       <c r="J17">
-        <v>0.0006115548016996843</v>
+        <v>0.0006443472634251983</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>11.4321873696126</v>
+        <v>11.88286</v>
       </c>
       <c r="N17">
-        <v>11.4321873696126</v>
+        <v>35.64858</v>
       </c>
       <c r="O17">
-        <v>0.1908023906961892</v>
+        <v>0.1810523941044453</v>
       </c>
       <c r="P17">
-        <v>0.1908023906961892</v>
+        <v>0.1810523941044453</v>
       </c>
       <c r="Q17">
-        <v>1.950197707673438</v>
+        <v>2.486623127413333</v>
       </c>
       <c r="R17">
-        <v>1.950197707673438</v>
+        <v>22.37960814672</v>
       </c>
       <c r="S17">
-        <v>0.0001166861182060337</v>
+        <v>0.0001166606146777798</v>
       </c>
       <c r="T17">
-        <v>0.0001166861182060337</v>
+        <v>0.0001166606146777799</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.170588326155078</v>
+        <v>0.2092613333333333</v>
       </c>
       <c r="H18">
-        <v>0.170588326155078</v>
+        <v>0.6277839999999999</v>
       </c>
       <c r="I18">
-        <v>0.0006115548016996843</v>
+        <v>0.0006443472634251982</v>
       </c>
       <c r="J18">
-        <v>0.0006115548016996843</v>
+        <v>0.0006443472634251983</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>1.63214732573411</v>
+        <v>1.641831</v>
       </c>
       <c r="N18">
-        <v>1.63214732573411</v>
+        <v>4.925493</v>
       </c>
       <c r="O18">
-        <v>0.02724042229628126</v>
+        <v>0.02501564718130951</v>
       </c>
       <c r="P18">
-        <v>0.02724042229628126</v>
+        <v>0.02501564718130951</v>
       </c>
       <c r="Q18">
-        <v>0.2784252803354687</v>
+        <v>0.343571744168</v>
       </c>
       <c r="R18">
-        <v>0.2784252803354687</v>
+        <v>3.092145697512</v>
       </c>
       <c r="S18">
-        <v>1.665901105561794E-05</v>
+        <v>1.611876380408705E-05</v>
       </c>
       <c r="T18">
-        <v>1.665901105561794E-05</v>
+        <v>1.611876380408706E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.170588326155078</v>
+        <v>0.2092613333333333</v>
       </c>
       <c r="H19">
-        <v>0.170588326155078</v>
+        <v>0.6277839999999999</v>
       </c>
       <c r="I19">
-        <v>0.0006115548016996843</v>
+        <v>0.0006443472634251982</v>
       </c>
       <c r="J19">
-        <v>0.0006115548016996843</v>
+        <v>0.0006443472634251983</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>16.84932930869</v>
+        <v>20.954868</v>
       </c>
       <c r="N19">
-        <v>16.84932930869</v>
+        <v>62.864604</v>
       </c>
       <c r="O19">
-        <v>0.2812141027596159</v>
+        <v>0.3192774314889369</v>
       </c>
       <c r="P19">
-        <v>0.2812141027596159</v>
+        <v>0.3192774314889369</v>
       </c>
       <c r="Q19">
-        <v>2.874298883605124</v>
+        <v>4.385043617504</v>
       </c>
       <c r="R19">
-        <v>2.874298883605124</v>
+        <v>39.46539255753599</v>
       </c>
       <c r="S19">
-        <v>0.0001719778348483115</v>
+        <v>0.0002057255392533227</v>
       </c>
       <c r="T19">
-        <v>0.0001719778348483115</v>
+        <v>0.0002057255392533228</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.237257899283873</v>
+        <v>0.2582773333333333</v>
       </c>
       <c r="H20">
-        <v>0.237257899283873</v>
+        <v>0.774832</v>
       </c>
       <c r="I20">
-        <v>0.0008505635222443589</v>
+        <v>0.000795274933439325</v>
       </c>
       <c r="J20">
-        <v>0.0008505635222443589</v>
+        <v>0.0007952749334393251</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.45815071794157</v>
+        <v>1.908591666666666</v>
       </c>
       <c r="N20">
-        <v>1.45815071794157</v>
+        <v>5.725775</v>
       </c>
       <c r="O20">
-        <v>0.02433643133930232</v>
+        <v>0.02908012806830959</v>
       </c>
       <c r="P20">
-        <v>0.02433643133930232</v>
+        <v>0.0290801280683096</v>
       </c>
       <c r="Q20">
-        <v>0.3459577761780881</v>
+        <v>0.4929459660888888</v>
       </c>
       <c r="R20">
-        <v>0.3459577761780881</v>
+        <v>4.436513694799999</v>
       </c>
       <c r="S20">
-        <v>2.069968075881498E-05</v>
+        <v>2.312669691393195E-05</v>
       </c>
       <c r="T20">
-        <v>2.069968075881498E-05</v>
+        <v>2.312669691393197E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.237257899283873</v>
+        <v>0.2582773333333333</v>
       </c>
       <c r="H21">
-        <v>0.237257899283873</v>
+        <v>0.774832</v>
       </c>
       <c r="I21">
-        <v>0.0008505635222443589</v>
+        <v>0.000795274933439325</v>
       </c>
       <c r="J21">
-        <v>0.0008505635222443589</v>
+        <v>0.0007952749334393251</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>20.5090632873676</v>
+        <v>20.524797</v>
       </c>
       <c r="N21">
-        <v>20.5090632873676</v>
+        <v>61.574391</v>
       </c>
       <c r="O21">
-        <v>0.3422948014804789</v>
+        <v>0.3127246837341967</v>
       </c>
       <c r="P21">
-        <v>0.3422948014804789</v>
+        <v>0.3127246837341967</v>
       </c>
       <c r="Q21">
-        <v>4.865937271840839</v>
+        <v>5.301089836367999</v>
       </c>
       <c r="R21">
-        <v>4.865937271840839</v>
+        <v>47.709808527312</v>
       </c>
       <c r="S21">
-        <v>0.0002911434719931698</v>
+        <v>0.0002487021020415472</v>
       </c>
       <c r="T21">
-        <v>0.0002911434719931698</v>
+        <v>0.0002487021020415473</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.237257899283873</v>
+        <v>0.2582773333333333</v>
       </c>
       <c r="H22">
-        <v>0.237257899283873</v>
+        <v>0.774832</v>
       </c>
       <c r="I22">
-        <v>0.0008505635222443589</v>
+        <v>0.000795274933439325</v>
       </c>
       <c r="J22">
-        <v>0.0008505635222443589</v>
+        <v>0.0007952749334393251</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>8.0354958259057</v>
+        <v>8.719214000000001</v>
       </c>
       <c r="N22">
-        <v>8.0354958259057</v>
+        <v>26.157642</v>
       </c>
       <c r="O22">
-        <v>0.1341118514281324</v>
+        <v>0.132849715422802</v>
       </c>
       <c r="P22">
-        <v>0.1341118514281324</v>
+        <v>0.132849715422802</v>
       </c>
       <c r="Q22">
-        <v>1.906484859358716</v>
+        <v>2.251975340682667</v>
       </c>
       <c r="R22">
-        <v>1.906484859358716</v>
+        <v>20.267778066144</v>
       </c>
       <c r="S22">
-        <v>0.0001140706487254245</v>
+        <v>0.0001056520485903021</v>
       </c>
       <c r="T22">
-        <v>0.0001140706487254245</v>
+        <v>0.0001056520485903022</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.237257899283873</v>
+        <v>0.2582773333333333</v>
       </c>
       <c r="H23">
-        <v>0.237257899283873</v>
+        <v>0.774832</v>
       </c>
       <c r="I23">
-        <v>0.0008505635222443589</v>
+        <v>0.000795274933439325</v>
       </c>
       <c r="J23">
-        <v>0.0008505635222443589</v>
+        <v>0.0007952749334393251</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>11.4321873696126</v>
+        <v>11.88286</v>
       </c>
       <c r="N23">
-        <v>11.4321873696126</v>
+        <v>35.64858</v>
       </c>
       <c r="O23">
-        <v>0.1908023906961892</v>
+        <v>0.1810523941044453</v>
       </c>
       <c r="P23">
-        <v>0.1908023906961892</v>
+        <v>0.1810523941044453</v>
       </c>
       <c r="Q23">
-        <v>2.712376759533912</v>
+        <v>3.069073393173333</v>
       </c>
       <c r="R23">
-        <v>2.712376759533912</v>
+        <v>27.62166053856</v>
       </c>
       <c r="S23">
-        <v>0.000162289553483195</v>
+        <v>0.0001439864306704431</v>
       </c>
       <c r="T23">
-        <v>0.000162289553483195</v>
+        <v>0.0001439864306704432</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.237257899283873</v>
+        <v>0.2582773333333333</v>
       </c>
       <c r="H24">
-        <v>0.237257899283873</v>
+        <v>0.774832</v>
       </c>
       <c r="I24">
-        <v>0.0008505635222443589</v>
+        <v>0.000795274933439325</v>
       </c>
       <c r="J24">
-        <v>0.0008505635222443589</v>
+        <v>0.0007952749334393251</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>1.63214732573411</v>
+        <v>1.641831</v>
       </c>
       <c r="N24">
-        <v>1.63214732573411</v>
+        <v>4.925493</v>
       </c>
       <c r="O24">
-        <v>0.02724042229628126</v>
+        <v>0.02501564718130951</v>
       </c>
       <c r="P24">
-        <v>0.02724042229628126</v>
+        <v>0.02501564718130951</v>
       </c>
       <c r="Q24">
-        <v>0.3872398458254661</v>
+        <v>0.424047732464</v>
       </c>
       <c r="R24">
-        <v>0.3872398458254661</v>
+        <v>3.816429592176</v>
       </c>
       <c r="S24">
-        <v>2.316970953574875E-05</v>
+        <v>1.989431714705756E-05</v>
       </c>
       <c r="T24">
-        <v>2.316970953574875E-05</v>
+        <v>1.989431714705756E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.237257899283873</v>
+        <v>0.2582773333333333</v>
       </c>
       <c r="H25">
-        <v>0.237257899283873</v>
+        <v>0.774832</v>
       </c>
       <c r="I25">
-        <v>0.0008505635222443589</v>
+        <v>0.000795274933439325</v>
       </c>
       <c r="J25">
-        <v>0.0008505635222443589</v>
+        <v>0.0007952749334393251</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>16.84932930869</v>
+        <v>20.954868</v>
       </c>
       <c r="N25">
-        <v>16.84932930869</v>
+        <v>62.864604</v>
       </c>
       <c r="O25">
-        <v>0.2812141027596159</v>
+        <v>0.3192774314889369</v>
       </c>
       <c r="P25">
-        <v>0.2812141027596159</v>
+        <v>0.3192774314889369</v>
       </c>
       <c r="Q25">
-        <v>3.997636476121981</v>
+        <v>5.412167427391999</v>
       </c>
       <c r="R25">
-        <v>3.997636476121981</v>
+        <v>48.709506846528</v>
       </c>
       <c r="S25">
-        <v>0.000239190457748006</v>
+        <v>0.0002539133380760429</v>
       </c>
       <c r="T25">
-        <v>0.000239190457748006</v>
+        <v>0.000253913338076043</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0.278026461590785</v>
+        <v>0.4764636666666667</v>
       </c>
       <c r="H26">
-        <v>0.278026461590785</v>
+        <v>1.429391</v>
       </c>
       <c r="I26">
-        <v>0.0009967177790984854</v>
+        <v>0.001467103620376766</v>
       </c>
       <c r="J26">
-        <v>0.0009967177790984854</v>
+        <v>0.001467103620376766</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.45815071794157</v>
+        <v>1.908591666666666</v>
       </c>
       <c r="N26">
-        <v>1.45815071794157</v>
+        <v>5.725775</v>
       </c>
       <c r="O26">
-        <v>0.02433643133930232</v>
+        <v>0.02908012806830959</v>
       </c>
       <c r="P26">
-        <v>0.02433643133930232</v>
+        <v>0.0290801280683096</v>
       </c>
       <c r="Q26">
-        <v>0.4054044845753574</v>
+        <v>0.9093745836694443</v>
       </c>
       <c r="R26">
-        <v>0.4054044845753574</v>
+        <v>8.184371253025001</v>
       </c>
       <c r="S26">
-        <v>2.425655379569219E-05</v>
+        <v>4.266356117003701E-05</v>
       </c>
       <c r="T26">
-        <v>2.425655379569219E-05</v>
+        <v>4.266356117003704E-05</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>0.278026461590785</v>
+        <v>0.4764636666666667</v>
       </c>
       <c r="H27">
-        <v>0.278026461590785</v>
+        <v>1.429391</v>
       </c>
       <c r="I27">
-        <v>0.0009967177790984854</v>
+        <v>0.001467103620376766</v>
       </c>
       <c r="J27">
-        <v>0.0009967177790984854</v>
+        <v>0.001467103620376766</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>20.5090632873676</v>
+        <v>20.524797</v>
       </c>
       <c r="N27">
-        <v>20.5090632873676</v>
+        <v>61.574391</v>
       </c>
       <c r="O27">
-        <v>0.3422948014804789</v>
+        <v>0.3127246837341967</v>
       </c>
       <c r="P27">
-        <v>0.3422948014804789</v>
+        <v>0.3127246837341967</v>
       </c>
       <c r="Q27">
-        <v>5.702062296328286</v>
+        <v>9.779320036209</v>
       </c>
       <c r="R27">
-        <v>5.702062296328286</v>
+        <v>88.013880325881</v>
       </c>
       <c r="S27">
-        <v>0.0003411713143285799</v>
+        <v>0.000458799515687619</v>
       </c>
       <c r="T27">
-        <v>0.0003411713143285799</v>
+        <v>0.0004587995156876192</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>0.278026461590785</v>
+        <v>0.4764636666666667</v>
       </c>
       <c r="H28">
-        <v>0.278026461590785</v>
+        <v>1.429391</v>
       </c>
       <c r="I28">
-        <v>0.0009967177790984854</v>
+        <v>0.001467103620376766</v>
       </c>
       <c r="J28">
-        <v>0.0009967177790984854</v>
+        <v>0.001467103620376766</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>8.0354958259057</v>
+        <v>8.719214000000001</v>
       </c>
       <c r="N28">
-        <v>8.0354958259057</v>
+        <v>26.157642</v>
       </c>
       <c r="O28">
-        <v>0.1341118514281324</v>
+        <v>0.132849715422802</v>
       </c>
       <c r="P28">
-        <v>0.1341118514281324</v>
+        <v>0.132849715422802</v>
       </c>
       <c r="Q28">
-        <v>2.234080471604084</v>
+        <v>4.154388672891334</v>
       </c>
       <c r="R28">
-        <v>2.234080471604084</v>
+        <v>37.38949805602201</v>
       </c>
       <c r="S28">
-        <v>0.0001336716667062342</v>
+        <v>0.0001949042984628159</v>
       </c>
       <c r="T28">
-        <v>0.0001336716667062342</v>
+        <v>0.000194904298462816</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>0.278026461590785</v>
+        <v>0.4764636666666667</v>
       </c>
       <c r="H29">
-        <v>0.278026461590785</v>
+        <v>1.429391</v>
       </c>
       <c r="I29">
-        <v>0.0009967177790984854</v>
+        <v>0.001467103620376766</v>
       </c>
       <c r="J29">
-        <v>0.0009967177790984854</v>
+        <v>0.001467103620376766</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>11.4321873696126</v>
+        <v>11.88286</v>
       </c>
       <c r="N29">
-        <v>11.4321873696126</v>
+        <v>35.64858</v>
       </c>
       <c r="O29">
-        <v>0.1908023906961892</v>
+        <v>0.1810523941044453</v>
       </c>
       <c r="P29">
-        <v>0.1908023906961892</v>
+        <v>0.1810523941044453</v>
       </c>
       <c r="Q29">
-        <v>3.178450602616255</v>
+        <v>5.661751046086668</v>
       </c>
       <c r="R29">
-        <v>3.178450602616255</v>
+        <v>50.95575941478</v>
       </c>
       <c r="S29">
-        <v>0.0001901761351013873</v>
+        <v>0.0002656226228685127</v>
       </c>
       <c r="T29">
-        <v>0.0001901761351013873</v>
+        <v>0.0002656226228685128</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>0.278026461590785</v>
+        <v>0.4764636666666667</v>
       </c>
       <c r="H30">
-        <v>0.278026461590785</v>
+        <v>1.429391</v>
       </c>
       <c r="I30">
-        <v>0.0009967177790984854</v>
+        <v>0.001467103620376766</v>
       </c>
       <c r="J30">
-        <v>0.0009967177790984854</v>
+        <v>0.001467103620376766</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>1.63214732573411</v>
+        <v>1.641831</v>
       </c>
       <c r="N30">
-        <v>1.63214732573411</v>
+        <v>4.925493</v>
       </c>
       <c r="O30">
-        <v>0.02724042229628126</v>
+        <v>0.02501564718130951</v>
       </c>
       <c r="P30">
-        <v>0.02724042229628126</v>
+        <v>0.02501564718130951</v>
       </c>
       <c r="Q30">
-        <v>0.4537801457687169</v>
+        <v>0.782272818307</v>
       </c>
       <c r="R30">
-        <v>0.4537801457687169</v>
+        <v>7.040455364763001</v>
       </c>
       <c r="S30">
-        <v>2.715101321285432E-05</v>
+        <v>3.670054654576702E-05</v>
       </c>
       <c r="T30">
-        <v>2.715101321285432E-05</v>
+        <v>3.670054654576703E-05</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>0.278026461590785</v>
+        <v>0.4764636666666667</v>
       </c>
       <c r="H31">
-        <v>0.278026461590785</v>
+        <v>1.429391</v>
       </c>
       <c r="I31">
-        <v>0.0009967177790984854</v>
+        <v>0.001467103620376766</v>
       </c>
       <c r="J31">
-        <v>0.0009967177790984854</v>
+        <v>0.001467103620376766</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>16.84932930869</v>
+        <v>20.954868</v>
       </c>
       <c r="N31">
-        <v>16.84932930869</v>
+        <v>62.864604</v>
       </c>
       <c r="O31">
-        <v>0.2812141027596159</v>
+        <v>0.3192774314889369</v>
       </c>
       <c r="P31">
-        <v>0.2812141027596159</v>
+        <v>0.3192774314889369</v>
       </c>
       <c r="Q31">
-        <v>4.684559407872988</v>
+        <v>9.984233241796002</v>
       </c>
       <c r="R31">
-        <v>4.684559407872988</v>
+        <v>89.858099176164</v>
       </c>
       <c r="S31">
-        <v>0.0002802910959537376</v>
+        <v>0.0004684130756420142</v>
       </c>
       <c r="T31">
-        <v>0.0002802910959537376</v>
+        <v>0.0004684130756420143</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>63.9697798931344</v>
+        <v>79.72331333333334</v>
       </c>
       <c r="H32">
-        <v>63.9697798931344</v>
+        <v>239.16994</v>
       </c>
       <c r="I32">
-        <v>0.229330030601005</v>
+        <v>0.2454801274523863</v>
       </c>
       <c r="J32">
-        <v>0.229330030601005</v>
+        <v>0.2454801274523863</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>1.45815071794157</v>
+        <v>1.908591666666666</v>
       </c>
       <c r="N32">
-        <v>1.45815071794157</v>
+        <v>5.725775</v>
       </c>
       <c r="O32">
-        <v>0.02433643133930232</v>
+        <v>0.02908012806830959</v>
       </c>
       <c r="P32">
-        <v>0.02433643133930232</v>
+        <v>0.0290801280683096</v>
       </c>
       <c r="Q32">
-        <v>93.27758047773814</v>
+        <v>152.1592514670556</v>
       </c>
       <c r="R32">
-        <v>93.27758047773814</v>
+        <v>1369.4332632035</v>
       </c>
       <c r="S32">
-        <v>0.005581074543761459</v>
+        <v>0.007138593544540355</v>
       </c>
       <c r="T32">
-        <v>0.005581074543761459</v>
+        <v>0.007138593544540358</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>63.9697798931344</v>
+        <v>79.72331333333334</v>
       </c>
       <c r="H33">
-        <v>63.9697798931344</v>
+        <v>239.16994</v>
       </c>
       <c r="I33">
-        <v>0.229330030601005</v>
+        <v>0.2454801274523863</v>
       </c>
       <c r="J33">
-        <v>0.229330030601005</v>
+        <v>0.2454801274523863</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>20.5090632873676</v>
+        <v>20.524797</v>
       </c>
       <c r="N33">
-        <v>20.5090632873676</v>
+        <v>61.574391</v>
       </c>
       <c r="O33">
-        <v>0.3422948014804789</v>
+        <v>0.3127246837341967</v>
       </c>
       <c r="P33">
-        <v>0.3422948014804789</v>
+        <v>0.3127246837341967</v>
       </c>
       <c r="Q33">
-        <v>1311.960264307269</v>
+        <v>1636.30482233406</v>
       </c>
       <c r="R33">
-        <v>1311.960264307269</v>
+        <v>14726.74340100654</v>
       </c>
       <c r="S33">
-        <v>0.07849847729808317</v>
+        <v>0.07676769522057779</v>
       </c>
       <c r="T33">
-        <v>0.07849847729808317</v>
+        <v>0.0767676952205778</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>63.9697798931344</v>
+        <v>79.72331333333334</v>
       </c>
       <c r="H34">
-        <v>63.9697798931344</v>
+        <v>239.16994</v>
       </c>
       <c r="I34">
-        <v>0.229330030601005</v>
+        <v>0.2454801274523863</v>
       </c>
       <c r="J34">
-        <v>0.229330030601005</v>
+        <v>0.2454801274523863</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>8.0354958259057</v>
+        <v>8.719214000000001</v>
       </c>
       <c r="N34">
-        <v>8.0354958259057</v>
+        <v>26.157642</v>
       </c>
       <c r="O34">
-        <v>0.1341118514281324</v>
+        <v>0.132849715422802</v>
       </c>
       <c r="P34">
-        <v>0.1341118514281324</v>
+        <v>0.132849715422802</v>
       </c>
       <c r="Q34">
-        <v>514.0288993153879</v>
+        <v>695.1246297423868</v>
       </c>
       <c r="R34">
-        <v>514.0288993153879</v>
+        <v>6256.12166768148</v>
       </c>
       <c r="S34">
-        <v>0.03075587499197105</v>
+        <v>0.03261196507400269</v>
       </c>
       <c r="T34">
-        <v>0.03075587499197105</v>
+        <v>0.03261196507400269</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>63.9697798931344</v>
+        <v>79.72331333333334</v>
       </c>
       <c r="H35">
-        <v>63.9697798931344</v>
+        <v>239.16994</v>
       </c>
       <c r="I35">
-        <v>0.229330030601005</v>
+        <v>0.2454801274523863</v>
       </c>
       <c r="J35">
-        <v>0.229330030601005</v>
+        <v>0.2454801274523863</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>11.4321873696126</v>
+        <v>11.88286</v>
       </c>
       <c r="N35">
-        <v>11.4321873696126</v>
+        <v>35.64858</v>
       </c>
       <c r="O35">
-        <v>0.1908023906961892</v>
+        <v>0.1810523941044453</v>
       </c>
       <c r="P35">
-        <v>0.1908023906961892</v>
+        <v>0.1810523941044453</v>
       </c>
       <c r="Q35">
-        <v>731.3145097311892</v>
+        <v>947.3409710761334</v>
       </c>
       <c r="R35">
-        <v>731.3145097311892</v>
+        <v>8526.068739685201</v>
       </c>
       <c r="S35">
-        <v>0.04375671809710199</v>
+        <v>0.0444447647803189</v>
       </c>
       <c r="T35">
-        <v>0.04375671809710199</v>
+        <v>0.04444476478031891</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>63.9697798931344</v>
+        <v>79.72331333333334</v>
       </c>
       <c r="H36">
-        <v>63.9697798931344</v>
+        <v>239.16994</v>
       </c>
       <c r="I36">
-        <v>0.229330030601005</v>
+        <v>0.2454801274523863</v>
       </c>
       <c r="J36">
-        <v>0.229330030601005</v>
+        <v>0.2454801274523863</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>1.63214732573411</v>
+        <v>1.641831</v>
       </c>
       <c r="N36">
-        <v>1.63214732573411</v>
+        <v>4.925493</v>
       </c>
       <c r="O36">
-        <v>0.02724042229628126</v>
+        <v>0.02501564718130951</v>
       </c>
       <c r="P36">
-        <v>0.02724042229628126</v>
+        <v>0.02501564718130951</v>
       </c>
       <c r="Q36">
-        <v>104.408105180379</v>
+        <v>130.89220725338</v>
       </c>
       <c r="R36">
-        <v>104.408105180379</v>
+        <v>1178.02986528042</v>
       </c>
       <c r="S36">
-        <v>0.00624704687879048</v>
+        <v>0.006140844258371786</v>
       </c>
       <c r="T36">
-        <v>0.00624704687879048</v>
+        <v>0.006140844258371787</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>63.9697798931344</v>
+        <v>79.72331333333334</v>
       </c>
       <c r="H37">
-        <v>63.9697798931344</v>
+        <v>239.16994</v>
       </c>
       <c r="I37">
-        <v>0.229330030601005</v>
+        <v>0.2454801274523863</v>
       </c>
       <c r="J37">
-        <v>0.229330030601005</v>
+        <v>0.2454801274523863</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>16.84932930869</v>
+        <v>20.954868</v>
       </c>
       <c r="N37">
-        <v>16.84932930869</v>
+        <v>62.864604</v>
       </c>
       <c r="O37">
-        <v>0.2812141027596159</v>
+        <v>0.3192774314889369</v>
       </c>
       <c r="P37">
-        <v>0.2812141027596159</v>
+        <v>0.3192774314889369</v>
       </c>
       <c r="Q37">
-        <v>1077.847887223838</v>
+        <v>1670.59150742264</v>
       </c>
       <c r="R37">
-        <v>1077.847887223838</v>
+        <v>15035.32356680376</v>
       </c>
       <c r="S37">
-        <v>0.06449083879129688</v>
+        <v>0.07837626457457476</v>
       </c>
       <c r="T37">
-        <v>0.06449083879129688</v>
+        <v>0.07837626457457478</v>
       </c>
     </row>
   </sheetData>
